--- a/11.SprintBacklog.xlsx
+++ b/11.SprintBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\CS445 ĐỒ ÁN CHUYÊN NGÀNH\ĐỒ ÁN NHÓM CHUYÊN NGÀNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\CS445 ĐỒ ÁN CHUYÊN NGÀNH\ĐỒ ÁN (BẢN FINAL)\ĐỒ ÁN NHÓM CHUYÊN NGÀNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5F0BF-F316-40F3-86FF-A11091BFCAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E42257-D21C-408D-81C9-0F9B714F910E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11688" windowHeight="7668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,8 +380,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="dd/mm"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -911,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -919,12 +919,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -937,29 +952,38 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,37 +997,22 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,15 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,10 +1175,10 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>104</c:v>
@@ -1187,16 +1187,16 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>76</c:v>
@@ -1205,10 +1205,10 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>60</c:v>
@@ -1223,10 +1223,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>28</c:v>
@@ -1353,10 +1353,10 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>104</c:v>
@@ -1365,16 +1365,16 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>76</c:v>
@@ -1383,10 +1383,10 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>60</c:v>
@@ -1401,10 +1401,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>28</c:v>
@@ -1670,37 +1670,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>87.75</c:v>
+                  <c:v>91.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.75</c:v>
+                  <c:v>81.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.75</c:v>
+                  <c:v>77.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.75</c:v>
+                  <c:v>69.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>34</c:v>
@@ -1836,37 +1836,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>87.75</c:v>
+                  <c:v>91.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.75</c:v>
+                  <c:v>83.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.75</c:v>
+                  <c:v>79.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.75</c:v>
+                  <c:v>67.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
@@ -1896,7 +1896,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC78" sqref="AC78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -2409,10 +2409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2422,10 +2422,10 @@
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
@@ -2435,10 +2435,10 @@
       </c>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="18">
         <v>45606</v>
       </c>
@@ -2448,10 +2448,10 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="17.25" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="18">
         <v>45629</v>
       </c>
@@ -2467,12 +2467,12 @@
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="23" t="s">
@@ -2569,10 +2569,10 @@
       </c>
     </row>
     <row r="13" spans="1:32">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="25">
         <f ca="1">SUM(D8:D12)</f>
         <v>115</v>
@@ -2589,14 +2589,14 @@
       <c r="B15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="27" t="s">
         <v>14</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="55" t="s">
@@ -2685,10 +2685,10 @@
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="28">
         <v>10</v>
       </c>
@@ -2769,16 +2769,16 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="55" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="28">
         <v>2</v>
       </c>
@@ -2859,17 +2859,16 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="43">
+      <c r="J18" s="43">
         <v>2</v>
       </c>
       <c r="L18" s="28"/>
@@ -2895,16 +2894,16 @@
       <c r="AF18" s="28"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="28">
         <v>2</v>
       </c>
@@ -2985,18 +2984,18 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="55"/>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="28">
         <v>0.5</v>
       </c>
@@ -3077,16 +3076,16 @@
       </c>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="55"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="28">
         <v>0.5</v>
       </c>
@@ -3167,16 +3166,16 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="55"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="28">
         <v>0.5</v>
       </c>
@@ -3257,16 +3256,16 @@
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="55" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="55"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="28">
         <v>0.5</v>
       </c>
@@ -3347,16 +3346,16 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="55"/>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="28">
         <v>1</v>
       </c>
@@ -3437,16 +3436,16 @@
       </c>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="55"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="28">
         <v>1</v>
       </c>
@@ -3527,16 +3526,16 @@
       </c>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="55" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="55"/>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="28">
         <v>6</v>
       </c>
@@ -3617,12 +3616,12 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -3630,8 +3629,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="43">
+      <c r="N27" s="43">
         <v>4</v>
       </c>
       <c r="P27" s="28"/>
@@ -3653,18 +3651,18 @@
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="55"/>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="28">
         <v>0.5</v>
       </c>
@@ -3745,16 +3743,16 @@
       </c>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="55"/>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="28">
         <v>0.5</v>
       </c>
@@ -3835,16 +3833,16 @@
       </c>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="55"/>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="28">
         <v>0.5</v>
       </c>
@@ -3925,16 +3923,16 @@
       </c>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="55"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="28">
         <v>0.5</v>
       </c>
@@ -4015,16 +4013,16 @@
       </c>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="55"/>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="28">
         <v>1</v>
       </c>
@@ -4105,16 +4103,16 @@
       </c>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="55"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="28">
         <v>2</v>
       </c>
@@ -4195,12 +4193,12 @@
       </c>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -4231,16 +4229,16 @@
       <c r="AF34" s="28"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="55" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="55"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="28">
         <v>8</v>
       </c>
@@ -4321,12 +4319,12 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -4337,8 +4335,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="43">
+      <c r="Q36" s="43">
         <v>2</v>
       </c>
       <c r="S36" s="28"/>
@@ -4357,18 +4354,18 @@
       <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="55"/>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="28">
         <v>2</v>
       </c>
@@ -4449,16 +4446,16 @@
       </c>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="55"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="28">
         <v>2</v>
       </c>
@@ -4539,16 +4536,16 @@
       </c>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="55"/>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="28">
         <v>3</v>
       </c>
@@ -4629,12 +4626,12 @@
       </c>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -4665,16 +4662,16 @@
       <c r="AF40" s="28"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="55" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="55"/>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="28">
         <v>3</v>
       </c>
@@ -4755,12 +4752,12 @@
       </c>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
@@ -4791,16 +4788,16 @@
       <c r="AF42" s="28"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="55"/>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="28">
         <v>1</v>
       </c>
@@ -4881,12 +4878,12 @@
       </c>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -4900,8 +4897,7 @@
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
       <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="43">
+      <c r="T44" s="43">
         <v>1</v>
       </c>
       <c r="V44" s="28"/>
@@ -4917,16 +4913,16 @@
       <c r="AF44" s="28"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="55" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="55"/>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="28">
         <v>3</v>
       </c>
@@ -5007,12 +5003,12 @@
       </c>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
@@ -5043,16 +5039,16 @@
       <c r="AF46" s="28"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="55" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="55"/>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="28">
         <v>2</v>
       </c>
@@ -5133,16 +5129,16 @@
       </c>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="55" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="55"/>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="28">
         <v>2</v>
       </c>
@@ -5223,16 +5219,16 @@
       </c>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="28">
         <v>4</v>
       </c>
@@ -5313,16 +5309,16 @@
       </c>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="55" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="55"/>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="28">
         <v>4</v>
       </c>
@@ -5403,16 +5399,16 @@
       </c>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="55"/>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="28">
         <v>4</v>
       </c>
@@ -5493,16 +5489,16 @@
       </c>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="55" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="55"/>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="28">
         <v>4</v>
       </c>
@@ -5583,16 +5579,16 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="52"/>
       <c r="G53" s="28">
         <v>8</v>
       </c>
@@ -5673,12 +5669,12 @@
       </c>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -5698,8 +5694,7 @@
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
       <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="43">
+      <c r="Z54" s="43">
         <v>2</v>
       </c>
       <c r="AB54" s="28"/>
@@ -5709,18 +5704,18 @@
       <c r="AF54" s="28"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="55"/>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="56"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="28">
         <v>1</v>
       </c>
@@ -5801,16 +5796,16 @@
       </c>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="55"/>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="52"/>
       <c r="G56" s="28">
         <v>1</v>
       </c>
@@ -5891,16 +5886,16 @@
       </c>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="55" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="55"/>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="56"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="28">
         <v>1</v>
       </c>
@@ -5981,16 +5976,16 @@
       </c>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="55" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="55"/>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="56"/>
+      <c r="F58" s="52"/>
       <c r="G58" s="28">
         <v>1</v>
       </c>
@@ -6071,16 +6066,16 @@
       </c>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="55" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="55"/>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="56"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="28">
         <v>1</v>
       </c>
@@ -6161,16 +6156,16 @@
       </c>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="55"/>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="28">
         <v>1</v>
       </c>
@@ -6251,18 +6246,18 @@
       </c>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="55"/>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="56"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="28">
         <v>1</v>
       </c>
@@ -6343,16 +6338,16 @@
       </c>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="55"/>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="28">
         <v>2.5</v>
       </c>
@@ -6433,12 +6428,12 @@
       </c>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="55"/>
       <c r="D63" s="55"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -6469,16 +6464,16 @@
       <c r="AF63" s="28"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="55"/>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="28">
         <v>1.5</v>
       </c>
@@ -6559,16 +6554,16 @@
       </c>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="55"/>
-      <c r="E65" s="56" t="s">
+      <c r="E65" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="56"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="28">
         <v>1</v>
       </c>
@@ -6643,16 +6638,16 @@
       <c r="AF65" s="28"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="55"/>
-      <c r="E66" s="56" t="s">
+      <c r="E66" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="56"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="28">
         <v>1.5</v>
       </c>
@@ -6733,16 +6728,16 @@
       </c>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="55"/>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="56"/>
+      <c r="F67" s="52"/>
       <c r="G67" s="28">
         <v>1.5</v>
       </c>
@@ -6823,18 +6818,18 @@
       </c>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53" t="s">
         <v>76</v>
       </c>
       <c r="C68" s="55" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="55"/>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="56"/>
+      <c r="F68" s="52"/>
       <c r="G68" s="28">
         <v>1</v>
       </c>
@@ -6915,16 +6910,16 @@
       </c>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D69" s="55"/>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="56"/>
+      <c r="F69" s="52"/>
       <c r="G69" s="28">
         <v>1</v>
       </c>
@@ -7005,16 +7000,16 @@
       </c>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="55" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="55"/>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="56"/>
+      <c r="F70" s="52"/>
       <c r="G70" s="28">
         <v>3</v>
       </c>
@@ -7095,12 +7090,12 @@
       </c>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="55"/>
       <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
@@ -7131,16 +7126,16 @@
       <c r="AF71" s="28"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="55" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="55"/>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="28">
         <v>2</v>
       </c>
@@ -7221,16 +7216,16 @@
       </c>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="55" t="s">
         <v>81</v>
       </c>
       <c r="D73" s="55"/>
-      <c r="E73" s="56" t="s">
+      <c r="E73" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="28">
         <v>2</v>
       </c>
@@ -7311,16 +7306,16 @@
       </c>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="55" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="55"/>
-      <c r="E74" s="56" t="s">
+      <c r="E74" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="28">
         <v>2</v>
       </c>
@@ -7401,18 +7396,18 @@
       </c>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C75" s="55" t="s">
         <v>84</v>
       </c>
       <c r="D75" s="55"/>
-      <c r="E75" s="56" t="s">
+      <c r="E75" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="56"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="28">
         <v>5</v>
       </c>
@@ -7493,16 +7488,16 @@
       </c>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="55" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="55"/>
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="28">
         <v>5</v>
       </c>
@@ -7583,32 +7578,32 @@
       </c>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="58"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="57" t="s">
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="56">
+      <c r="F77" s="51"/>
+      <c r="G77" s="52">
         <f>SUM(G16:G76)</f>
         <v>115</v>
       </c>
-      <c r="H77" s="56"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="28">
         <f>SUM(I16:I76)</f>
         <v>120</v>
       </c>
       <c r="J77" s="28">
         <f>SUM(J16:J76)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K77" s="28">
-        <f>SUM(K16:K76)-K18</f>
-        <v>106</v>
+        <f>SUM(K16:K76)-J18</f>
+        <v>104</v>
       </c>
       <c r="L77" s="28">
         <f>SUM(L16:L76)</f>
@@ -7620,11 +7615,11 @@
       </c>
       <c r="N77" s="28">
         <f>SUM(N16:N76)</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O77" s="28">
-        <f>SUM(O16:O76)-O27</f>
-        <v>90</v>
+        <f>SUM(O16:O76)-N27</f>
+        <v>86</v>
       </c>
       <c r="P77" s="28">
         <f>SUM(P16:P76)</f>
@@ -7632,10 +7627,10 @@
       </c>
       <c r="Q77" s="28">
         <f>SUM(Q16:Q76)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R77" s="28">
-        <f>SUM(R16:R76)-R36</f>
+        <f>SUM(R16:R76)</f>
         <v>76</v>
       </c>
       <c r="S77" s="28">
@@ -7644,11 +7639,11 @@
       </c>
       <c r="T77" s="28">
         <f>SUM(T16:T76)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U77" s="28">
-        <f>SUM(U16:U76)-U44</f>
-        <v>65</v>
+        <f>SUM(U16:U76)-T44</f>
+        <v>64</v>
       </c>
       <c r="V77" s="28">
         <f>SUM(V16:V76)</f>
@@ -7668,11 +7663,11 @@
       </c>
       <c r="Z77" s="28">
         <f>SUM(Z16:Z76)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA77" s="28">
-        <f>SUM(AA16:AA76)-AA54</f>
-        <v>34</v>
+        <f>SUM(AA16:AA76)-Z54</f>
+        <v>32</v>
       </c>
       <c r="AB77" s="28">
         <f>SUM(AB16:AB76)</f>
@@ -7696,30 +7691,30 @@
       </c>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="58"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="57" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="56">
+      <c r="F78" s="51"/>
+      <c r="G78" s="52">
         <f>SUM(H16:H76)</f>
         <v>120</v>
       </c>
-      <c r="H78" s="56"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="28">
         <f>SUM(I16:I76)</f>
         <v>120</v>
       </c>
       <c r="J78" s="28">
-        <f>SUM(J16:J76)+K18</f>
-        <v>110</v>
+        <f>SUM(J16:J76)+J18</f>
+        <v>112</v>
       </c>
       <c r="K78" s="28">
-        <f>SUM(K16:K76)-K18</f>
-        <v>106</v>
+        <f>SUM(K16:K76)-J18</f>
+        <v>104</v>
       </c>
       <c r="L78" s="28">
         <f>SUM(L16:L76)</f>
@@ -7730,23 +7725,23 @@
         <v>102</v>
       </c>
       <c r="N78" s="28">
-        <f>SUM(N16:N76)+O27</f>
-        <v>100</v>
+        <f>SUM(N16:N76)+N27</f>
+        <v>104</v>
       </c>
       <c r="O78" s="28">
-        <f>SUM(O16:O76)-O27</f>
-        <v>90</v>
+        <f>SUM(O16:O76)-N27</f>
+        <v>86</v>
       </c>
       <c r="P78" s="28">
         <f>SUM(P16:P76)</f>
         <v>88</v>
       </c>
       <c r="Q78" s="28">
-        <f>SUM(Q16:Q76)+R36-Q34</f>
-        <v>86</v>
+        <f>SUM(Q16:Q76)+Q36-Q34</f>
+        <v>88</v>
       </c>
       <c r="R78" s="28">
-        <f>SUM(R16:R76)-R36</f>
+        <f>SUM(R16:R76)</f>
         <v>76</v>
       </c>
       <c r="S78" s="28">
@@ -7754,12 +7749,12 @@
         <v>72</v>
       </c>
       <c r="T78" s="28">
-        <f>SUM(T16:T76)+U44-T42-T40</f>
-        <v>68</v>
+        <f>SUM(T16:T76)+T44-T42-T40</f>
+        <v>69</v>
       </c>
       <c r="U78" s="28">
-        <f>SUM(U16:U76)-U46-U44</f>
-        <v>64</v>
+        <f>SUM(U16:U76)-U46-T44</f>
+        <v>63</v>
       </c>
       <c r="V78" s="28">
         <f>SUM(V16:V76)</f>
@@ -7778,12 +7773,12 @@
         <v>48</v>
       </c>
       <c r="Z78" s="28">
-        <f>SUM(Z16:Z76)+AA54</f>
-        <v>44</v>
+        <f>SUM(Z16:Z76)+Z54</f>
+        <v>46</v>
       </c>
       <c r="AA78" s="28">
-        <f>SUM(AA16:AA76)-AA54</f>
-        <v>34</v>
+        <f>SUM(AA16:AA76)-Z54</f>
+        <v>32</v>
       </c>
       <c r="AB78" s="28">
         <f>SUM(AB16:AB76)</f>
@@ -7808,6 +7803,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="E78:F78"/>
@@ -7832,125 +7946,6 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -7962,8 +7957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH77"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7984,10 +7979,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="16.8">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
@@ -7998,10 +7993,10 @@
       </c>
     </row>
     <row r="2" spans="1:60" ht="16.8">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="15" t="s">
         <v>86</v>
       </c>
@@ -8012,10 +8007,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="16.8">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="18">
         <v>45630</v>
       </c>
@@ -8026,10 +8021,10 @@
       </c>
     </row>
     <row r="4" spans="1:60" ht="18" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="18">
         <v>45651</v>
       </c>
@@ -8051,12 +8046,12 @@
     </row>
     <row r="6" spans="1:60" ht="16.8">
       <c r="A6" s="12"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:60" ht="16.8">
       <c r="A7" s="12"/>
@@ -8121,7 +8116,7 @@
       </c>
       <c r="E10" s="15">
         <f ca="1">SUMIF($E$16:$F$54,"Nguyễn Hữu Thắng",$H$16:$H$54)+SUMIF($E$16:$F$54,"All team",$H$16:$H$54)/5+SUMIF($E$16:$F$54,"Phạm Quang Khánh,Nguyễn Hữu Thắng",$H$16:$H$54)/2</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="16.8">
@@ -8155,22 +8150,22 @@
       </c>
       <c r="E12" s="15">
         <f ca="1">SUMIF($E$16:$F$54,"Phạm Quang Khánh",$H$16:$H$54)+SUMIF($E$16:$F$54,"All team",$H$16:$H$54)/5+SUMIF($E$16:$F$54,"Phạm Quang Khánh,Nguyễn Hữu Thắng",$H$16:$H$54)/2</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="16.8">
       <c r="A13" s="12"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="25">
         <f ca="1">SUM(D8:D12)</f>
         <v>87.75</v>
       </c>
       <c r="E13" s="25">
         <f ca="1">SUM(E8:E12)</f>
-        <v>87.75</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="63.75" customHeight="1">
@@ -8180,14 +8175,14 @@
       <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="65" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="27" t="s">
         <v>14</v>
       </c>
@@ -8292,18 +8287,18 @@
       <c r="BH15" s="48"/>
     </row>
     <row r="16" spans="1:60" ht="16.8">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="28">
         <v>10</v>
       </c>
@@ -8378,16 +8373,16 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="16.8">
-      <c r="A17" s="58"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="28">
         <v>2</v>
       </c>
@@ -8462,17 +8457,16 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="16.8">
-      <c r="A18" s="58"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="43">
+      <c r="J18" s="43">
         <v>2</v>
       </c>
       <c r="L18" s="28"/>
@@ -8496,30 +8490,30 @@
       <c r="AD18" s="28"/>
     </row>
     <row r="19" spans="1:30" ht="16.8">
-      <c r="A19" s="58"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="28">
         <v>6</v>
       </c>
       <c r="H19" s="28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I19" s="28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J19" s="28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19" s="42">
         <v>0</v>
@@ -8580,18 +8574,17 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="16.8">
-      <c r="A20" s="58"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="44">
+      <c r="K20" s="43">
         <v>2</v>
       </c>
       <c r="M20" s="28"/>
@@ -8614,18 +8607,18 @@
       <c r="AD20" s="28"/>
     </row>
     <row r="21" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="29">
         <v>0.25</v>
       </c>
@@ -8700,16 +8693,16 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="16.8">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="67" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="29">
         <v>0.25</v>
       </c>
@@ -8784,16 +8777,16 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="16.8">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="67" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="71"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="29">
         <v>0.25</v>
       </c>
@@ -8868,16 +8861,16 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="16.8">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="67" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="28">
         <v>5</v>
       </c>
@@ -8952,12 +8945,12 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="16.8">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -8965,8 +8958,7 @@
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="43">
+      <c r="N25" s="43">
         <v>5</v>
       </c>
       <c r="P25" s="28"/>
@@ -8986,18 +8978,18 @@
       <c r="AD25" s="28"/>
     </row>
     <row r="26" spans="1:30" ht="16.8">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70" t="s">
+      <c r="D26" s="62"/>
+      <c r="E26" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="28">
         <v>1</v>
       </c>
@@ -9072,16 +9064,16 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="16.8">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="67" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="28">
         <v>3</v>
       </c>
@@ -9156,12 +9148,12 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="16.8">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -9190,16 +9182,16 @@
       <c r="AD28" s="28"/>
     </row>
     <row r="29" spans="1:30" ht="16.8">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="67" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="28">
         <v>1</v>
       </c>
@@ -9274,16 +9266,16 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="16.8">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="67" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="71"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="28">
         <v>7</v>
       </c>
@@ -9358,12 +9350,12 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="16.8">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -9374,8 +9366,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43">
+      <c r="Q31" s="43">
         <v>3</v>
       </c>
       <c r="S31" s="28"/>
@@ -9392,18 +9383,18 @@
       <c r="AD31" s="28"/>
     </row>
     <row r="32" spans="1:30" ht="16.8">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="71"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="28">
         <v>1</v>
       </c>
@@ -9478,8 +9469,8 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="16.8">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="30"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
@@ -9495,8 +9486,7 @@
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="46">
+      <c r="R33" s="46">
         <v>1</v>
       </c>
       <c r="T33" s="34"/>
@@ -9512,16 +9502,16 @@
       <c r="AD33" s="34"/>
     </row>
     <row r="34" spans="1:30" ht="16.8">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="67" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="28">
         <v>2</v>
       </c>
@@ -9596,16 +9586,16 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="16.8">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="67" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="28">
         <v>2</v>
       </c>
@@ -9680,16 +9670,16 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="16.8">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="67" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="71"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="28">
         <v>6</v>
       </c>
@@ -9764,12 +9754,12 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="16.8">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -9798,16 +9788,16 @@
       <c r="AD37" s="28"/>
     </row>
     <row r="38" spans="1:30" ht="16.8">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="67" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70" t="s">
+      <c r="D38" s="62"/>
+      <c r="E38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="71"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="28">
         <v>2</v>
       </c>
@@ -9882,16 +9872,16 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="16.8">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="67" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="71"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="28">
         <v>2</v>
       </c>
@@ -9966,16 +9956,16 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="16.8">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="67" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70" t="s">
+      <c r="D40" s="62"/>
+      <c r="E40" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="71"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="28">
         <v>10</v>
       </c>
@@ -10050,18 +10040,18 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="16.8">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="71"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="28">
         <v>1</v>
       </c>
@@ -10136,16 +10126,16 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="16.8">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="67" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70" t="s">
+      <c r="D42" s="62"/>
+      <c r="E42" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="71"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="28">
         <v>3</v>
       </c>
@@ -10220,12 +10210,12 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="16.8">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -10254,16 +10244,16 @@
       <c r="AD43" s="28"/>
     </row>
     <row r="44" spans="1:30" ht="16.8">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="67" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70" t="s">
+      <c r="D44" s="62"/>
+      <c r="E44" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="71"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="28">
         <v>1</v>
       </c>
@@ -10338,18 +10328,18 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="16.8">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="71"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="28">
         <v>1</v>
       </c>
@@ -10424,16 +10414,16 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="16.8">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="67" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70" t="s">
+      <c r="D46" s="62"/>
+      <c r="E46" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="28">
         <v>4</v>
       </c>
@@ -10508,12 +10498,12 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="16.8">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
@@ -10542,16 +10532,16 @@
       <c r="AD47" s="28"/>
     </row>
     <row r="48" spans="1:30" ht="16.8">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="67" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70" t="s">
+      <c r="D48" s="62"/>
+      <c r="E48" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="71"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="28">
         <v>1</v>
       </c>
@@ -10626,18 +10616,18 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="16.8">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="71"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="28">
         <v>1</v>
       </c>
@@ -10712,16 +10702,16 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="16.8">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="67" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70" t="s">
+      <c r="D50" s="62"/>
+      <c r="E50" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="71"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="28">
         <v>3</v>
       </c>
@@ -10796,12 +10786,12 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="16.8">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -10830,16 +10820,16 @@
       <c r="AD51" s="28"/>
     </row>
     <row r="52" spans="1:30" ht="16.8">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="67" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70" t="s">
+      <c r="D52" s="62"/>
+      <c r="E52" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="71"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="28">
         <v>2</v>
       </c>
@@ -10914,18 +10904,18 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="16.8">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70" t="s">
+      <c r="D53" s="62"/>
+      <c r="E53" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="71"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="28">
         <v>5</v>
       </c>
@@ -11000,16 +10990,16 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="16.8">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="67" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70" t="s">
+      <c r="D54" s="62"/>
+      <c r="E54" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="71"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="28">
         <v>5</v>
       </c>
@@ -11084,36 +11074,36 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="16.8">
-      <c r="A55" s="58"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
-      <c r="E55" s="75" t="s">
+      <c r="E55" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="70">
+      <c r="F55" s="66"/>
+      <c r="G55" s="63">
         <f>SUM(G16:G54)</f>
         <v>87.75</v>
       </c>
-      <c r="H55" s="71"/>
+      <c r="H55" s="64"/>
       <c r="I55" s="28">
         <f>SUM(I16:I54)</f>
-        <v>87.75</v>
+        <v>91.75</v>
       </c>
       <c r="J55" s="28">
         <f>SUM(J16:J54)</f>
-        <v>75.75</v>
+        <v>81.75</v>
       </c>
       <c r="K55" s="28">
-        <f>SUM(K16:K54)-K18</f>
-        <v>73.75</v>
+        <f>SUM(K16:K54)</f>
+        <v>77.75</v>
       </c>
       <c r="L55" s="28">
         <f>SUM(L16:L54)</f>
-        <v>71.75</v>
+        <v>69.75</v>
       </c>
       <c r="M55" s="28">
         <f>SUM(M16:M54)</f>
@@ -11121,11 +11111,11 @@
       </c>
       <c r="N55" s="28">
         <f>SUM(N16:N54)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O55" s="28">
-        <f>SUM(O16:O54)-O25</f>
-        <v>59</v>
+        <f>SUM(O16:O54)-N25</f>
+        <v>54</v>
       </c>
       <c r="P55" s="28">
         <f>SUM(P16:P54)</f>
@@ -11133,15 +11123,15 @@
       </c>
       <c r="Q55" s="28">
         <f>SUM(Q16:Q54)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R55" s="28">
-        <f>SUM(R16:R54)-R31</f>
-        <v>45</v>
+        <f>SUM(R16:R54)</f>
+        <v>46</v>
       </c>
       <c r="S55" s="28">
-        <f>SUM(S16:S54)-S33</f>
-        <v>38</v>
+        <f>SUM(S16:S54)-R33</f>
+        <v>37</v>
       </c>
       <c r="T55" s="28">
         <f t="shared" ref="T55:AD55" si="0">SUM(T16:T54)</f>
@@ -11180,7 +11170,7 @@
         <v>15</v>
       </c>
       <c r="AC55" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(AC16:AC54)</f>
         <v>11</v>
       </c>
       <c r="AD55" s="28">
@@ -11189,62 +11179,62 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="16.8">
-      <c r="A56" s="58"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
       <c r="D56" s="40"/>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="76"/>
-      <c r="G56" s="70">
+      <c r="F56" s="66"/>
+      <c r="G56" s="63">
         <f>SUM(H16:H54)</f>
-        <v>87.75</v>
-      </c>
-      <c r="H56" s="71"/>
+        <v>91.75</v>
+      </c>
+      <c r="H56" s="64"/>
       <c r="I56" s="28">
         <f>SUM(I16:I54)</f>
-        <v>87.75</v>
+        <v>91.75</v>
       </c>
       <c r="J56" s="28">
-        <f>SUM(J16:J54)+K18</f>
-        <v>77.75</v>
+        <f>SUM(J16:J54)+J18</f>
+        <v>83.75</v>
       </c>
       <c r="K56" s="28">
-        <f>SUM(K16:K54)-K18</f>
-        <v>73.75</v>
+        <f>SUM(K16:K54)+K20</f>
+        <v>79.75</v>
       </c>
       <c r="L56" s="28">
-        <f>SUM(L16:L54)-L20</f>
-        <v>69.75</v>
+        <f>SUM(L16:L54)-K20</f>
+        <v>67.75</v>
       </c>
       <c r="M56" s="28">
         <f>SUM(M16:M54)</f>
         <v>69</v>
       </c>
       <c r="N56" s="28">
-        <f>SUM(N16:N54)+O25</f>
-        <v>69</v>
+        <f>SUM(N16:N54)+N25</f>
+        <v>74</v>
       </c>
       <c r="O56" s="28">
-        <f>SUM(O16:O54)-O25</f>
-        <v>59</v>
+        <f>SUM(O16:O54)-N25</f>
+        <v>54</v>
       </c>
       <c r="P56" s="28">
         <f>SUM(P16:P54)-P28</f>
         <v>56</v>
       </c>
       <c r="Q56" s="28">
-        <f>SUM(Q16:Q54)+R31</f>
-        <v>56</v>
+        <f>SUM(Q16:Q54)+Q31</f>
+        <v>59</v>
       </c>
       <c r="R56" s="28">
-        <f>SUM(R16:R54)-R31</f>
-        <v>45</v>
+        <f>SUM(R16:R54)+R33</f>
+        <v>47</v>
       </c>
       <c r="S56" s="28">
-        <f>SUM(S16:S54)-S33</f>
-        <v>38</v>
+        <f>SUM(S16:S54)-R33</f>
+        <v>37</v>
       </c>
       <c r="T56" s="28">
         <f>SUM(T16:T54)-T37</f>
@@ -11283,8 +11273,8 @@
         <v>15</v>
       </c>
       <c r="AC56" s="28">
-        <f>SUM(AC16:AC54)</f>
-        <v>11</v>
+        <f>SUM(AC16:AC54)-AC51</f>
+        <v>10</v>
       </c>
       <c r="AD56" s="28">
         <f>SUM(AD16:AD54)</f>
@@ -11292,11 +11282,92 @@
       </c>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="A16:A56"/>
     <mergeCell ref="B21:B25"/>
@@ -11307,93 +11378,12 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -11424,45 +11414,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.8">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16.8">
-      <c r="A2" s="85"/>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="82"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="16.8">
-      <c r="A3" s="85"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11565,7 +11555,7 @@
       </c>
       <c r="G5" s="3">
         <f ca="1">'Sprint 2'!$E$10</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3">
         <f ca="1">'Sprint 2'!$D$11</f>
@@ -11581,7 +11571,7 @@
       </c>
       <c r="K5" s="3">
         <f ca="1">'Sprint 2'!$E$12</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.8">
@@ -11610,7 +11600,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -11626,14 +11616,14 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.8">
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:11" ht="16.8">
       <c r="E10" s="6" t="s">
@@ -11650,7 +11640,7 @@
       </c>
       <c r="F11" s="9">
         <f ca="1">SUMIF($B$3:$K$3,"Ước tính",$B$6:$K$6)</f>
-        <v>207.75</v>
+        <v>211.75</v>
       </c>
     </row>
   </sheetData>
